--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_cerber_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_cerber_1_1.xlsx
@@ -3484,7 +3484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  That means “Kay is not allowed in here.” Got it?
+    <t xml:space="preserve">[name="Gummy"]  That means 'Kay is not allowed in here.' Got it?
 </t>
   </si>
   <si>
@@ -4828,7 +4828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="쿠리어"]  (작은 소리로) 케오가 왔어요.
+    <t xml:space="preserve">[name="쿠리어"]  (작은 목소리로) 케오가 왔어요.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_cerber_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_cerber_1_1.xlsx
@@ -3028,7 +3028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]  It's about time. You’d better get to work on them.
+    <t xml:space="preserve">[name="Vulcan"]  It's about time. You'd better get to work on them.
 </t>
   </si>
   <si>
@@ -3056,7 +3056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]  Let’s clean up and pack up. Then we can head out when the fire dies down.
+    <t xml:space="preserve">[name="Vulcan"]  Let's clean up and pack up. Then we can head out when the fire dies down.
 </t>
   </si>
   <si>
@@ -3084,7 +3084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]  Almost time. Let’s go.
+    <t xml:space="preserve">[name="Vulcan"]  Almost time. Let's go.
 </t>
   </si>
   <si>
@@ -3252,7 +3252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  I’m kinda hungry.
+    <t xml:space="preserve">[name="Ceobe"]  I'm kinda hungry.
 </t>
   </si>
   <si>
@@ -3460,15 +3460,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  Wooaahh! Kay, you can’t go in there!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  I can’t?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  You can’t! Don’t you see the sign on the door?
+    <t xml:space="preserve">[name="Gummy"]  Wooaahh! Kay, you can't go in there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  I can't?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  You can't! Don't you see the sign on the door?
 </t>
   </si>
   <si>
@@ -3500,19 +3500,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  If you’re hungry, you can just get in line and order something to eat.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Y-You’re not allowed in there!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  But I’m hungry!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gummy"]  Fine, fine! I’ll think of something!!
+    <t xml:space="preserve">[name="Gummy"]  If you're hungry, you can just get in line and order something to eat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Y-You're not allowed in there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  But I'm hungry!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gummy"]  Fine, fine! I'll think of something!!
 </t>
   </si>
   <si>
@@ -3752,7 +3752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  I’ll make it this time!
+    <t xml:space="preserve">[name="Ceobe"]  I'll make it this time!
 </t>
   </si>
   <si>
@@ -3856,7 +3856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]  It’s me.
+    <t xml:space="preserve">[name="Vulcan"]  It's me.
 </t>
   </si>
   <si>
@@ -4088,7 +4088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Wow, what’s this?
+    <t xml:space="preserve">[name="Ceobe"]  Wow, what's this?
 </t>
   </si>
   <si>
@@ -4324,7 +4324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Vulcan taught me how to make it. It’s fresh outta the oven.
+    <t xml:space="preserve">[name="Ceobe"]  Vulcan taught me how to make it. It's fresh outta the oven.
 </t>
   </si>
   <si>
@@ -4368,7 +4368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]  You don’t have to thank me.
+    <t xml:space="preserve">[name="Vulcan"]  You don't have to thank me.
 </t>
   </si>
   <si>
